--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3081830.610771986</v>
+        <v>3080901.555577374</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1667317.432543013</v>
+        <v>1667317.432543014</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2127881.062998359</v>
+        <v>2127881.062998361</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>317.1893950877998</v>
+        <v>259.3853380370336</v>
       </c>
       <c r="G2" t="n">
         <v>9.031127956876844</v>
@@ -718,7 +718,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>65.92202770962915</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>90.59247293232247</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>186.338615885192</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>298.990147931461</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>87.95308749070804</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>116.876383545772</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>278.8402134403142</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>167.9683453503095</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>116.876383545772</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>126.6143120166835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,22 +1372,22 @@
         <v>302.4985237799665</v>
       </c>
       <c r="C11" t="n">
-        <v>295.2524720077823</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
         <v>304.5664151603045</v>
       </c>
       <c r="F11" t="n">
-        <v>318.7342196110056</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
         <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
-        <v>11.87843712116419</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404351</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T11" t="n">
-        <v>127.2743219418611</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
-        <v>159.203927795431</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6944667292004</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
         <v>273.297770207079</v>
@@ -1438,7 +1438,7 @@
         <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5345275142885</v>
+        <v>250.4229759626258</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007184</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035424</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219397</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507239</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484035</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723248</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380453</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497646</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943237</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S13" t="n">
         <v>106.7966485049597</v>
@@ -1584,7 +1584,7 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U13" t="n">
-        <v>188.5931293662017</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V13" t="n">
         <v>169.3282772530676</v>
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C14" t="n">
-        <v>295.2524720077823</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
-        <v>318.7342196110056</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G14" t="n">
         <v>315.0398534825604</v>
@@ -1627,7 +1627,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414339</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T14" t="n">
-        <v>127.2743219418611</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>159.203927795431</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6944667292004</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>86.21993564328591</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X14" t="n">
-        <v>291.5668045419573</v>
+        <v>33.63182494412198</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007184</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035424</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219397</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507308</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484035</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723248</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380453</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497644</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943208</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S16" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T16" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U16" t="n">
-        <v>188.5931293662015</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y16" t="n">
-        <v>126.8896660972066</v>
+        <v>126.889666097207</v>
       </c>
     </row>
     <row r="17">
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C17" t="n">
-        <v>295.2524720077823</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D17" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E17" t="n">
-        <v>304.5664151603045</v>
+        <v>28.84940926028739</v>
       </c>
       <c r="F17" t="n">
-        <v>318.7342196110056</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G17" t="n">
         <v>315.0398534825604</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>42.96247126414339</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T17" t="n">
-        <v>127.2743219418611</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U17" t="n">
-        <v>159.203927795431</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W17" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X17" t="n">
-        <v>288.4389391410395</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y17" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>89.36466403007184</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C19" t="n">
-        <v>74.51179228035424</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D19" t="n">
-        <v>60.08550749219397</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E19" t="n">
-        <v>60.01194954507308</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F19" t="n">
-        <v>61.76140096484035</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G19" t="n">
-        <v>72.58023888723248</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H19" t="n">
-        <v>59.93249105380453</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I19" t="n">
-        <v>37.77220663497646</v>
+        <v>37.77220663497638</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>28.67070499943237</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S19" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T19" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U19" t="n">
-        <v>188.5931293662017</v>
+        <v>188.5931293662013</v>
       </c>
       <c r="V19" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W19" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X19" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y19" t="n">
         <v>126.8896660972066</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C20" t="n">
-        <v>295.2524720077823</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D20" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E20" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F20" t="n">
-        <v>244.7492091760435</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G20" t="n">
         <v>315.0398534825604</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I20" t="n">
-        <v>42.96247126414339</v>
+        <v>28.60476511161691</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>70.85714503404351</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T20" t="n">
-        <v>127.2743219418611</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>159.203927795431</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X20" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y20" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.36466403007184</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C22" t="n">
-        <v>74.51179228035424</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D22" t="n">
-        <v>60.08550749219397</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E22" t="n">
-        <v>60.01194954507308</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F22" t="n">
-        <v>61.76140096484035</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G22" t="n">
-        <v>72.58023888723248</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H22" t="n">
-        <v>59.93249105380453</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I22" t="n">
-        <v>37.77220663497646</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>28.67070499943237</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S22" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T22" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U22" t="n">
-        <v>188.5931293662017</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V22" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W22" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X22" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y22" t="n">
         <v>126.8896660972066</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C23" t="n">
-        <v>295.2524720077823</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D23" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E23" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F23" t="n">
-        <v>291.6215469888002</v>
+        <v>46.22734108560383</v>
       </c>
       <c r="G23" t="n">
         <v>315.0398534825604</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I23" t="n">
-        <v>42.96247126414339</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>70.85714503404351</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>127.2743219418611</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U23" t="n">
-        <v>159.203927795431</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>244.6944667292004</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W23" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y23" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89.36466403007184</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C25" t="n">
-        <v>74.51179228035424</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D25" t="n">
-        <v>60.08550749219397</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E25" t="n">
-        <v>60.01194954507308</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F25" t="n">
-        <v>61.76140096484035</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G25" t="n">
-        <v>72.58023888723248</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H25" t="n">
-        <v>59.93249105380453</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I25" t="n">
-        <v>37.77220663497646</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>28.67070499943237</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S25" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T25" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U25" t="n">
-        <v>188.5931293662017</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V25" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W25" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X25" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y25" t="n">
         <v>126.8896660972066</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
-        <v>68.45626899976919</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D26" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G26" t="n">
         <v>315.0398534825604</v>
       </c>
       <c r="H26" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U26" t="n">
-        <v>159.2039277954309</v>
+        <v>145.0908657915748</v>
       </c>
       <c r="V26" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035423</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507278</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662018</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2800,19 +2800,19 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
-        <v>88.24365047454638</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2851,16 +2851,16 @@
         <v>159.2039277954309</v>
       </c>
       <c r="V29" t="n">
-        <v>244.6944667292003</v>
+        <v>241.0548430476004</v>
       </c>
       <c r="W29" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.7722066349762</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3006,16 +3006,16 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
-        <v>188.5931293662015</v>
+        <v>188.5931293662018</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>301.4034929455275</v>
+        <v>301.4034929455277</v>
       </c>
       <c r="C32" t="n">
-        <v>294.1574411733433</v>
+        <v>294.1574411733434</v>
       </c>
       <c r="D32" t="n">
-        <v>286.5004121867435</v>
+        <v>286.5004121867437</v>
       </c>
       <c r="E32" t="n">
-        <v>303.4713843258655</v>
+        <v>69.8844530434519</v>
       </c>
       <c r="F32" t="n">
-        <v>317.6391887765666</v>
+        <v>317.6391887765668</v>
       </c>
       <c r="G32" t="n">
-        <v>313.9448226481214</v>
+        <v>313.9448226481216</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.86744042970457</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>69.76211419960453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>126.1792911074221</v>
+        <v>126.1792911074222</v>
       </c>
       <c r="U32" t="n">
-        <v>158.108896960992</v>
+        <v>158.1088969609921</v>
       </c>
       <c r="V32" t="n">
-        <v>243.5994358947614</v>
+        <v>243.5994358947615</v>
       </c>
       <c r="W32" t="n">
-        <v>272.20273937264</v>
+        <v>272.2027393726402</v>
       </c>
       <c r="X32" t="n">
-        <v>28.99016865520695</v>
+        <v>290.4717737075185</v>
       </c>
       <c r="Y32" t="n">
-        <v>297.4394966798495</v>
+        <v>297.4394966798496</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>88.26963319563285</v>
+        <v>88.26963319563302</v>
       </c>
       <c r="C34" t="n">
-        <v>73.41676144591526</v>
+        <v>73.41676144591543</v>
       </c>
       <c r="D34" t="n">
-        <v>58.99047665775498</v>
+        <v>58.99047665775515</v>
       </c>
       <c r="E34" t="n">
-        <v>58.91691871063409</v>
+        <v>58.91691871063426</v>
       </c>
       <c r="F34" t="n">
-        <v>60.66637013040136</v>
+        <v>60.66637013040153</v>
       </c>
       <c r="G34" t="n">
-        <v>71.4852080527935</v>
+        <v>71.48520805279367</v>
       </c>
       <c r="H34" t="n">
-        <v>58.83746021936554</v>
+        <v>58.83746021936571</v>
       </c>
       <c r="I34" t="n">
-        <v>36.67717580053747</v>
+        <v>36.67717580053764</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>27.57567416499339</v>
+        <v>27.57567416499356</v>
       </c>
       <c r="S34" t="n">
-        <v>105.7016176705207</v>
+        <v>105.7016176705209</v>
       </c>
       <c r="T34" t="n">
-        <v>138.2755560046928</v>
+        <v>138.275556004693</v>
       </c>
       <c r="U34" t="n">
-        <v>187.4980985317627</v>
+        <v>187.4980985317628</v>
       </c>
       <c r="V34" t="n">
-        <v>168.2332464186286</v>
+        <v>168.2332464186288</v>
       </c>
       <c r="W34" t="n">
-        <v>185.4107927393787</v>
+        <v>185.4107927393789</v>
       </c>
       <c r="X34" t="n">
-        <v>136.6532136860913</v>
+        <v>136.6532136860915</v>
       </c>
       <c r="Y34" t="n">
-        <v>125.7946352627677</v>
+        <v>125.7946352627678</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>301.4034929455275</v>
+        <v>301.4034929455277</v>
       </c>
       <c r="C35" t="n">
-        <v>294.1574411733433</v>
+        <v>294.1574411733434</v>
       </c>
       <c r="D35" t="n">
-        <v>286.5004121867435</v>
+        <v>286.5004121867437</v>
       </c>
       <c r="E35" t="n">
-        <v>303.4713843258655</v>
+        <v>303.4713843258656</v>
       </c>
       <c r="F35" t="n">
-        <v>317.6391887765666</v>
+        <v>172.366522676079</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>313.9448226481216</v>
       </c>
       <c r="H35" t="n">
-        <v>225.7559146204188</v>
+        <v>225.755914620419</v>
       </c>
       <c r="I35" t="n">
-        <v>41.8674404297044</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>69.76211419960453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>126.1792911074221</v>
+        <v>126.1792911074222</v>
       </c>
       <c r="U35" t="n">
-        <v>158.108896960992</v>
+        <v>158.1088969609921</v>
       </c>
       <c r="V35" t="n">
-        <v>243.5994358947614</v>
+        <v>243.5994358947615</v>
       </c>
       <c r="W35" t="n">
-        <v>272.20273937264</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>75.31163625320524</v>
+        <v>290.4717737075185</v>
       </c>
       <c r="Y35" t="n">
-        <v>297.4394966798495</v>
+        <v>297.4394966798496</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>88.26963319563285</v>
+        <v>88.26963319563302</v>
       </c>
       <c r="C37" t="n">
-        <v>73.41676144591526</v>
+        <v>73.41676144591543</v>
       </c>
       <c r="D37" t="n">
-        <v>58.99047665775498</v>
+        <v>58.99047665775515</v>
       </c>
       <c r="E37" t="n">
-        <v>58.91691871063409</v>
+        <v>58.91691871063426</v>
       </c>
       <c r="F37" t="n">
-        <v>60.66637013040136</v>
+        <v>60.66637013040153</v>
       </c>
       <c r="G37" t="n">
-        <v>71.4852080527935</v>
+        <v>71.48520805279367</v>
       </c>
       <c r="H37" t="n">
-        <v>58.83746021936554</v>
+        <v>58.83746021936571</v>
       </c>
       <c r="I37" t="n">
-        <v>36.67717580053747</v>
+        <v>36.67717580053764</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>27.57567416499339</v>
+        <v>27.57567416499356</v>
       </c>
       <c r="S37" t="n">
-        <v>105.7016176705207</v>
+        <v>105.7016176705209</v>
       </c>
       <c r="T37" t="n">
-        <v>138.2755560046928</v>
+        <v>138.275556004693</v>
       </c>
       <c r="U37" t="n">
-        <v>187.4980985317627</v>
+        <v>187.4980985317628</v>
       </c>
       <c r="V37" t="n">
-        <v>168.2332464186286</v>
+        <v>168.2332464186288</v>
       </c>
       <c r="W37" t="n">
-        <v>185.4107927393787</v>
+        <v>185.4107927393789</v>
       </c>
       <c r="X37" t="n">
-        <v>136.6532136860913</v>
+        <v>136.6532136860915</v>
       </c>
       <c r="Y37" t="n">
-        <v>125.7946352627677</v>
+        <v>125.7946352627678</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>301.4034929455275</v>
+        <v>301.4034929455277</v>
       </c>
       <c r="C38" t="n">
-        <v>294.1574411733433</v>
+        <v>294.1574411733434</v>
       </c>
       <c r="D38" t="n">
-        <v>286.5004121867435</v>
+        <v>286.5004121867437</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>303.4713843258656</v>
       </c>
       <c r="F38" t="n">
-        <v>317.6391887765666</v>
+        <v>317.6391887765668</v>
       </c>
       <c r="G38" t="n">
-        <v>313.9448226481214</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1223388438496929</v>
+        <v>210.5721145567999</v>
       </c>
       <c r="I38" t="n">
-        <v>41.8674404297044</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>69.76211419960453</v>
+        <v>69.7621141996047</v>
       </c>
       <c r="T38" t="n">
-        <v>126.1792911074221</v>
+        <v>126.1792911074222</v>
       </c>
       <c r="U38" t="n">
-        <v>158.108896960992</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>243.5994358947614</v>
+        <v>243.5994358947615</v>
       </c>
       <c r="W38" t="n">
-        <v>272.20273937264</v>
+        <v>272.2027393726402</v>
       </c>
       <c r="X38" t="n">
-        <v>290.4717737075183</v>
+        <v>290.4717737075185</v>
       </c>
       <c r="Y38" t="n">
-        <v>297.4394966798495</v>
+        <v>297.4394966798496</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>88.26963319563285</v>
+        <v>88.26963319563302</v>
       </c>
       <c r="C40" t="n">
-        <v>73.41676144591526</v>
+        <v>73.41676144591543</v>
       </c>
       <c r="D40" t="n">
-        <v>58.99047665775498</v>
+        <v>58.99047665775515</v>
       </c>
       <c r="E40" t="n">
-        <v>58.91691871063409</v>
+        <v>58.91691871063426</v>
       </c>
       <c r="F40" t="n">
-        <v>60.66637013040136</v>
+        <v>60.66637013040153</v>
       </c>
       <c r="G40" t="n">
-        <v>71.4852080527935</v>
+        <v>71.48520805279367</v>
       </c>
       <c r="H40" t="n">
-        <v>58.83746021936554</v>
+        <v>58.83746021936571</v>
       </c>
       <c r="I40" t="n">
-        <v>36.67717580053747</v>
+        <v>36.67717580053764</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>27.57567416499339</v>
+        <v>27.57567416499356</v>
       </c>
       <c r="S40" t="n">
-        <v>105.7016176705207</v>
+        <v>105.7016176705209</v>
       </c>
       <c r="T40" t="n">
-        <v>138.2755560046928</v>
+        <v>138.275556004693</v>
       </c>
       <c r="U40" t="n">
-        <v>187.4980985317627</v>
+        <v>187.4980985317628</v>
       </c>
       <c r="V40" t="n">
-        <v>168.2332464186286</v>
+        <v>168.2332464186288</v>
       </c>
       <c r="W40" t="n">
-        <v>185.4107927393787</v>
+        <v>185.4107927393789</v>
       </c>
       <c r="X40" t="n">
-        <v>136.6532136860913</v>
+        <v>136.6532136860915</v>
       </c>
       <c r="Y40" t="n">
-        <v>125.7946352627677</v>
+        <v>125.7946352627678</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>395.3947674198439</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>388.1487156476599</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>380.4916866610601</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>397.4626588001821</v>
       </c>
       <c r="F41" t="n">
-        <v>409.5258246631034</v>
+        <v>411.6304632508832</v>
       </c>
       <c r="G41" t="n">
-        <v>407.9360971224379</v>
+        <v>407.936097122438</v>
       </c>
       <c r="H41" t="n">
-        <v>319.7471890947353</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>135.8587149040208</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>36.51795374289431</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>220.1705655817385</v>
+        <v>220.1705655817387</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>337.5907103690778</v>
+        <v>337.590710369078</v>
       </c>
       <c r="W41" t="n">
-        <v>366.1940138469564</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>384.4630481818348</v>
+        <v>78.53721633943819</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>391.4307711541661</v>
       </c>
     </row>
     <row r="42">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>152.9081931849505</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>152.828734693682</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>130.6684502748539</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>108.4093019817889</v>
       </c>
       <c r="T43" t="n">
-        <v>232.2668304790092</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>281.4893730060792</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>279.4020672136953</v>
       </c>
       <c r="X43" t="n">
-        <v>11.4871119923931</v>
+        <v>230.6444881604079</v>
       </c>
       <c r="Y43" t="n">
-        <v>219.7859097370841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>395.3947674198439</v>
+        <v>395.3947674198441</v>
       </c>
       <c r="C44" t="n">
-        <v>388.1487156476597</v>
+        <v>388.1487156476599</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>397.4626588001819</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>411.6304632508831</v>
+        <v>144.0942314000849</v>
       </c>
       <c r="G44" t="n">
-        <v>407.9360971224379</v>
+        <v>407.9360971224381</v>
       </c>
       <c r="H44" t="n">
-        <v>319.7471890947353</v>
+        <v>319.7471890947355</v>
       </c>
       <c r="I44" t="n">
-        <v>135.8587149040208</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>36.51795374289431</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>163.753388673921</v>
+        <v>163.7533886739212</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>220.1705655817387</v>
       </c>
       <c r="U44" t="n">
-        <v>252.1001714353084</v>
+        <v>252.1001714353086</v>
       </c>
       <c r="V44" t="n">
-        <v>104.8487648347575</v>
+        <v>337.590710369078</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>384.4630481818349</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.4080359202319</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,13 +4152,13 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>152.828734693682</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>130.6684502748539</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>28.9794566377201</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>121.5669486393098</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>199.6928921448371</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>35.56425981116165</v>
+        <v>2.704729330551703</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>279.4020672136954</v>
       </c>
       <c r="X46" t="n">
-        <v>230.6444881604077</v>
+        <v>230.6444881604079</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>219.7859097370843</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>923.1474259518279</v>
+        <v>864.7594895369125</v>
       </c>
       <c r="C2" t="n">
-        <v>529.9719244547584</v>
+        <v>471.5839880398431</v>
       </c>
       <c r="D2" t="n">
-        <v>529.9719244547584</v>
+        <v>471.5839880398431</v>
       </c>
       <c r="E2" t="n">
-        <v>529.9719244547584</v>
+        <v>471.5839880398431</v>
       </c>
       <c r="F2" t="n">
         <v>209.5785960832435</v>
@@ -4366,16 +4366,16 @@
         <v>2422.196584426364</v>
       </c>
       <c r="V2" t="n">
-        <v>2080.089775129883</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="W2" t="n">
-        <v>1709.09074009817</v>
+        <v>2051.197549394652</v>
       </c>
       <c r="X2" t="n">
-        <v>1319.638135031227</v>
+        <v>1661.744944327708</v>
       </c>
       <c r="Y2" t="n">
-        <v>923.1474259518279</v>
+        <v>1265.254235248309</v>
       </c>
     </row>
     <row r="3">
@@ -4409,22 +4409,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J3" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K3" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L3" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M3" t="n">
-        <v>865.4243596646552</v>
+        <v>1490.311599914302</v>
       </c>
       <c r="N3" t="n">
-        <v>1521.202330875214</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O3" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P3" t="n">
         <v>2146.089571124861</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>352.5394878540647</v>
+        <v>711.7702247769635</v>
       </c>
       <c r="C4" t="n">
-        <v>352.5394878540647</v>
+        <v>541.5651068429527</v>
       </c>
       <c r="D4" t="n">
-        <v>352.5394878540647</v>
+        <v>385.9319937454675</v>
       </c>
       <c r="E4" t="n">
-        <v>352.5394878540647</v>
+        <v>230.37318160467</v>
       </c>
       <c r="F4" t="n">
-        <v>195.2135530670377</v>
+        <v>230.37318160467</v>
       </c>
       <c r="G4" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H4" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I4" t="n">
         <v>62.11912770411553</v>
@@ -4518,22 +4518,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T4" t="n">
-        <v>963.5661502456679</v>
+        <v>896.9782434682647</v>
       </c>
       <c r="U4" t="n">
-        <v>678.1273584875689</v>
+        <v>896.9782434682647</v>
       </c>
       <c r="V4" t="n">
-        <v>678.1273584875689</v>
+        <v>896.9782434682647</v>
       </c>
       <c r="W4" t="n">
-        <v>586.6198100710816</v>
+        <v>896.9782434682647</v>
       </c>
       <c r="X4" t="n">
-        <v>352.5394878540647</v>
+        <v>896.9782434682647</v>
       </c>
       <c r="Y4" t="n">
-        <v>352.5394878540647</v>
+        <v>896.9782434682647</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1019.648536050335</v>
+        <v>1018.191656893387</v>
       </c>
       <c r="C5" t="n">
-        <v>626.4730345532657</v>
+        <v>625.0161553963171</v>
       </c>
       <c r="D5" t="n">
-        <v>626.4730345532657</v>
+        <v>625.0161553963171</v>
       </c>
       <c r="E5" t="n">
-        <v>626.4730345532657</v>
+        <v>222.4326305128616</v>
       </c>
       <c r="F5" t="n">
-        <v>613.6190001236475</v>
+        <v>209.5785960832435</v>
       </c>
       <c r="G5" t="n">
         <v>200.4562446116507</v>
@@ -4600,19 +4600,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="U5" t="n">
-        <v>2850.203655640375</v>
+        <v>2917.73556107932</v>
       </c>
       <c r="V5" t="n">
-        <v>2508.096846343894</v>
+        <v>2575.628751782838</v>
       </c>
       <c r="W5" t="n">
-        <v>2206.086595908074</v>
+        <v>2204.629716751126</v>
       </c>
       <c r="X5" t="n">
-        <v>1816.633990841131</v>
+        <v>1815.177111684182</v>
       </c>
       <c r="Y5" t="n">
-        <v>1420.143281761732</v>
+        <v>1418.686402604784</v>
       </c>
     </row>
     <row r="6">
@@ -4646,22 +4646,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J6" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K6" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L6" t="n">
-        <v>346.0196676966397</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M6" t="n">
-        <v>973.7913173233209</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N6" t="n">
-        <v>1629.56928853388</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O6" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P6" t="n">
         <v>2146.089571124861</v>
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>321.165748153993</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9606302199822</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D7" t="n">
         <v>62.11912770411553</v>
@@ -4758,19 +4758,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U7" t="n">
-        <v>963.5661502456679</v>
+        <v>845.5091971691305</v>
       </c>
       <c r="V7" t="n">
-        <v>963.5661502456679</v>
+        <v>579.5298519899548</v>
       </c>
       <c r="W7" t="n">
-        <v>963.5661502456679</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="X7" t="n">
-        <v>729.485828028651</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y7" t="n">
-        <v>506.3737668452943</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2535.796644191037</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="C8" t="n">
-        <v>2142.621142693967</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="D8" t="n">
-        <v>1757.180013910635</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="E8" t="n">
         <v>1354.596489027179</v>
@@ -4828,28 +4828,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R8" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S8" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T8" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U8" t="n">
-        <v>3105.956385205776</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V8" t="n">
-        <v>3105.956385205776</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="W8" t="n">
-        <v>3105.956385205776</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="X8" t="n">
-        <v>2936.291389902433</v>
+        <v>2032.743979359421</v>
       </c>
       <c r="Y8" t="n">
-        <v>2936.291389902433</v>
+        <v>1636.253270280022</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K9" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L9" t="n">
-        <v>346.0196676966397</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M9" t="n">
-        <v>973.7913173233209</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N9" t="n">
-        <v>1629.56928853388</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O9" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P9" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q9" t="n">
         <v>2380.454662679751</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>416.3845648760533</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C10" t="n">
-        <v>416.3845648760533</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D10" t="n">
-        <v>260.751451778568</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E10" t="n">
-        <v>260.751451778568</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F10" t="n">
-        <v>260.751451778568</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G10" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H10" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I10" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J10" t="n">
         <v>62.11912770411553</v>
@@ -4995,19 +4995,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U10" t="n">
-        <v>963.5661502456679</v>
+        <v>845.5091971691305</v>
       </c>
       <c r="V10" t="n">
-        <v>963.5661502456679</v>
+        <v>579.5298519899548</v>
       </c>
       <c r="W10" t="n">
-        <v>963.5661502456679</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="X10" t="n">
-        <v>729.485828028651</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y10" t="n">
-        <v>601.5925835673545</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1320.171044252415</v>
+        <v>1529.58061935049</v>
       </c>
       <c r="C11" t="n">
-        <v>1021.936224042534</v>
+        <v>1529.58061935049</v>
       </c>
       <c r="D11" t="n">
-        <v>1021.936224042534</v>
+        <v>1239.080171854346</v>
       </c>
       <c r="E11" t="n">
-        <v>714.2933804462673</v>
+        <v>931.4373282580789</v>
       </c>
       <c r="F11" t="n">
-        <v>392.3396232634333</v>
+        <v>609.483571075245</v>
       </c>
       <c r="G11" t="n">
-        <v>74.11754903862482</v>
+        <v>291.2614968504365</v>
       </c>
       <c r="H11" t="n">
         <v>62.11912770411553</v>
@@ -5050,10 +5050,10 @@
         <v>1059.071548358934</v>
       </c>
       <c r="M11" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N11" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O11" t="n">
         <v>2572.923332933306</v>
@@ -5062,10 +5062,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q11" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R11" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
         <v>3034.383511434015</v>
@@ -5074,19 +5074,19 @@
         <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>2745.011542002407</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="V11" t="n">
-        <v>2497.845413993114</v>
+        <v>2658.657462271327</v>
       </c>
       <c r="W11" t="n">
-        <v>2221.78706024859</v>
+        <v>2382.599108526803</v>
       </c>
       <c r="X11" t="n">
-        <v>1927.275136468835</v>
+        <v>2088.087184747048</v>
       </c>
       <c r="Y11" t="n">
-        <v>1625.725108676624</v>
+        <v>1835.134683774699</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
-        <v>1606.310991511064</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N12" t="n">
-        <v>2262.088962721623</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O12" t="n">
-        <v>2262.088962721623</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P12" t="n">
-        <v>2262.088962721623</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669550999</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082774</v>
+        <v>417.819930308278</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979805</v>
+        <v>357.1274984979811</v>
       </c>
       <c r="E13" t="n">
-        <v>296.509367644372</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F13" t="n">
         <v>234.1241141445332</v>
       </c>
       <c r="G13" t="n">
-        <v>160.8107415311671</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H13" t="n">
         <v>100.2728717798493</v>
@@ -5202,49 +5202,49 @@
         <v>125.3967468362513</v>
       </c>
       <c r="K13" t="n">
-        <v>300.2831496757664</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L13" t="n">
         <v>557.4621512791394</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469767</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N13" t="n">
-        <v>1113.046087107759</v>
+        <v>1113.04608710776</v>
       </c>
       <c r="O13" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
         <v>1581.729743385192</v>
       </c>
       <c r="Q13" t="n">
-        <v>1678.203301484816</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R13" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.367590874319</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T13" t="n">
         <v>1400.589220329742</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V13" t="n">
-        <v>1039.052445966844</v>
+        <v>1039.052445966845</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852098</v>
+        <v>850.6627251852102</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553811</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592128</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="14">
@@ -5263,25 +5263,25 @@
         <v>1282.476607474693</v>
       </c>
       <c r="E14" t="n">
-        <v>974.8337638784258</v>
+        <v>974.8337638784257</v>
       </c>
       <c r="F14" t="n">
-        <v>652.8800066955919</v>
+        <v>652.8800066955918</v>
       </c>
       <c r="G14" t="n">
-        <v>334.6579324707834</v>
+        <v>334.6579324707833</v>
       </c>
       <c r="H14" t="n">
-        <v>105.5155633244624</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5290,7 +5290,7 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N14" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O14" t="n">
         <v>2572.923332933306</v>
@@ -5299,25 +5299,25 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q14" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R14" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205777</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>2977.396464052382</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>2816.584415774169</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V14" t="n">
-        <v>2569.418287764875</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W14" t="n">
-        <v>2482.327443680748</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
         <v>2187.815519900993</v>
@@ -5357,25 +5357,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>84.60386270860994</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>568.1699486069232</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M15" t="n">
-        <v>568.1699486069232</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551007</v>
+        <v>493.0843669551001</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082782</v>
+        <v>417.8199303082777</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979813</v>
+        <v>357.1274984979808</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443721</v>
+        <v>296.5093676443717</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445333</v>
+        <v>234.124114144533</v>
       </c>
       <c r="G16" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311669</v>
       </c>
       <c r="H16" t="n">
         <v>100.2728717798493</v>
@@ -5436,7 +5436,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K16" t="n">
         <v>300.2831496757665</v>
@@ -5445,16 +5445,16 @@
         <v>557.4621512791396</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469772</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N16" t="n">
-        <v>1113.04608710776</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
         <v>1368.802215879041</v>
       </c>
       <c r="P16" t="n">
-        <v>1581.729743385193</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
         <v>1678.203301484817</v>
@@ -5466,22 +5466,22 @@
         <v>1541.36759087432</v>
       </c>
       <c r="T16" t="n">
-        <v>1400.589220329743</v>
+        <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
         <v>1210.091109858832</v>
       </c>
       <c r="V16" t="n">
-        <v>1039.052445966845</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852105</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553819</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592136</v>
+        <v>583.351704359213</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1642.069506034397</v>
+        <v>1320.171044252417</v>
       </c>
       <c r="C17" t="n">
-        <v>1343.834685824516</v>
+        <v>1021.936224042536</v>
       </c>
       <c r="D17" t="n">
-        <v>1053.334238328372</v>
+        <v>731.4357765463916</v>
       </c>
       <c r="E17" t="n">
-        <v>745.6913947321049</v>
+        <v>702.2949591117579</v>
       </c>
       <c r="F17" t="n">
-        <v>423.7376375492709</v>
+        <v>380.341201928924</v>
       </c>
       <c r="G17" t="n">
-        <v>105.5155633244624</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H17" t="n">
-        <v>105.5155633244624</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129435</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
         <v>565.7512566404055</v>
@@ -5542,25 +5542,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T17" t="n">
-        <v>2977.396464052381</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U17" t="n">
-        <v>2816.584415774168</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V17" t="n">
-        <v>2816.584415774168</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W17" t="n">
-        <v>2540.526062029644</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X17" t="n">
-        <v>2249.173598250816</v>
+        <v>1927.275136468836</v>
       </c>
       <c r="Y17" t="n">
-        <v>1947.623570458606</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="18">
@@ -5606,10 +5606,10 @@
         <v>1122.744905612751</v>
       </c>
       <c r="N18" t="n">
-        <v>1740.468202408463</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P18" t="n">
         <v>2146.089571124861</v>
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C19" t="n">
-        <v>417.819930308278</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D19" t="n">
         <v>357.127498497981</v>
@@ -5664,7 +5664,7 @@
         <v>234.1241141445332</v>
       </c>
       <c r="G19" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311669</v>
       </c>
       <c r="H19" t="n">
         <v>100.2728717798493</v>
@@ -5673,52 +5673,52 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K19" t="n">
-        <v>300.2831496757664</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L19" t="n">
-        <v>557.4621512791394</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M19" t="n">
-        <v>836.8050913469767</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N19" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O19" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P19" t="n">
-        <v>1581.729743385193</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q19" t="n">
-        <v>1678.203301484817</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R19" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S19" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T19" t="n">
-        <v>1400.589220329743</v>
+        <v>1400.589220329742</v>
       </c>
       <c r="U19" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V19" t="n">
-        <v>1039.052445966845</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W19" t="n">
-        <v>850.6627251852103</v>
+        <v>850.6627251852099</v>
       </c>
       <c r="X19" t="n">
-        <v>711.5230842553817</v>
+        <v>711.5230842553815</v>
       </c>
       <c r="Y19" t="n">
-        <v>583.3517043592134</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1567.337172261708</v>
+        <v>1856.709141693317</v>
       </c>
       <c r="C20" t="n">
-        <v>1269.102352051827</v>
+        <v>1558.474321483436</v>
       </c>
       <c r="D20" t="n">
-        <v>978.6019045556829</v>
+        <v>1267.973873987292</v>
       </c>
       <c r="E20" t="n">
-        <v>670.9590609594159</v>
+        <v>960.3310303910253</v>
       </c>
       <c r="F20" t="n">
-        <v>423.7376375492709</v>
+        <v>638.3772732081914</v>
       </c>
       <c r="G20" t="n">
-        <v>105.5155633244624</v>
+        <v>320.1551989833829</v>
       </c>
       <c r="H20" t="n">
-        <v>105.5155633244624</v>
+        <v>91.0128298370619</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129435</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
         <v>565.7512566404055</v>
@@ -5770,7 +5770,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
         <v>3105.956385205776</v>
@@ -5782,22 +5782,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T20" t="n">
-        <v>2905.82359028062</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="U20" t="n">
-        <v>2745.011542002406</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="V20" t="n">
-        <v>2745.011542002406</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="W20" t="n">
-        <v>2468.953188257882</v>
+        <v>2758.325157689491</v>
       </c>
       <c r="X20" t="n">
-        <v>2174.441264478127</v>
+        <v>2463.813233909736</v>
       </c>
       <c r="Y20" t="n">
-        <v>1872.891236685917</v>
+        <v>2162.263206117526</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>112.6101842924878</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>112.6101842924878</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>596.176270190801</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P21" t="n">
         <v>2146.089571124861</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551001</v>
       </c>
       <c r="C22" t="n">
-        <v>417.819930308278</v>
+        <v>417.8199303082777</v>
       </c>
       <c r="D22" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979808</v>
       </c>
       <c r="E22" t="n">
-        <v>296.5093676443719</v>
+        <v>296.5093676443717</v>
       </c>
       <c r="F22" t="n">
-        <v>234.1241141445332</v>
+        <v>234.124114144533</v>
       </c>
       <c r="G22" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311669</v>
       </c>
       <c r="H22" t="n">
         <v>100.2728717798493</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K22" t="n">
-        <v>300.2831496757671</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L22" t="n">
-        <v>557.4621512791401</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M22" t="n">
-        <v>836.8050913469774</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N22" t="n">
-        <v>1113.04608710776</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O22" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P22" t="n">
-        <v>1581.729743385193</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q22" t="n">
-        <v>1678.203301484817</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R22" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S22" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T22" t="n">
-        <v>1400.589220329743</v>
+        <v>1400.589220329742</v>
       </c>
       <c r="U22" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V22" t="n">
-        <v>1039.052445966845</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W22" t="n">
-        <v>850.6627251852103</v>
+        <v>850.6627251852099</v>
       </c>
       <c r="X22" t="n">
-        <v>711.5230842553817</v>
+        <v>711.5230842553813</v>
       </c>
       <c r="Y22" t="n">
-        <v>583.3517043592134</v>
+        <v>583.351704359213</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.682968032169</v>
+        <v>1552.555966302389</v>
       </c>
       <c r="C23" t="n">
-        <v>1316.448147822288</v>
+        <v>1254.321146092508</v>
       </c>
       <c r="D23" t="n">
-        <v>1025.947700326144</v>
+        <v>963.8206985963644</v>
       </c>
       <c r="E23" t="n">
-        <v>718.3048567298772</v>
+        <v>656.1778550000973</v>
       </c>
       <c r="F23" t="n">
-        <v>423.7376375492709</v>
+        <v>609.483571075245</v>
       </c>
       <c r="G23" t="n">
-        <v>105.5155633244624</v>
+        <v>291.2614968504365</v>
       </c>
       <c r="H23" t="n">
-        <v>105.5155633244624</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129435</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
         <v>565.7512566404055</v>
@@ -6004,37 +6004,37 @@
         <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933305</v>
       </c>
       <c r="P23" t="n">
         <v>2921.110825064827</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S23" t="n">
-        <v>3034.383511434015</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="T23" t="n">
-        <v>2905.82359028062</v>
+        <v>2977.39646405238</v>
       </c>
       <c r="U23" t="n">
-        <v>2745.011542002406</v>
+        <v>2977.39646405238</v>
       </c>
       <c r="V23" t="n">
-        <v>2497.845413993113</v>
+        <v>2730.230336043087</v>
       </c>
       <c r="W23" t="n">
-        <v>2221.787060248589</v>
+        <v>2454.171982298563</v>
       </c>
       <c r="X23" t="n">
-        <v>2221.787060248589</v>
+        <v>2159.660058518808</v>
       </c>
       <c r="Y23" t="n">
-        <v>1920.237032456378</v>
+        <v>1858.110030726598</v>
       </c>
     </row>
     <row r="24">
@@ -6053,10 +6053,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E24" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F24" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G24" t="n">
         <v>199.803798091603</v>
@@ -6065,19 +6065,19 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J24" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860693</v>
       </c>
       <c r="L24" t="n">
-        <v>175.2341099238429</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551001</v>
       </c>
       <c r="C25" t="n">
-        <v>417.819930308278</v>
+        <v>417.8199303082777</v>
       </c>
       <c r="D25" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979808</v>
       </c>
       <c r="E25" t="n">
-        <v>296.5093676443719</v>
+        <v>296.5093676443717</v>
       </c>
       <c r="F25" t="n">
-        <v>234.1241141445332</v>
+        <v>234.124114144533</v>
       </c>
       <c r="G25" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311669</v>
       </c>
       <c r="H25" t="n">
         <v>100.2728717798493</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J25" t="n">
-        <v>125.396746836252</v>
+        <v>125.3967468362509</v>
       </c>
       <c r="K25" t="n">
-        <v>300.2831496757671</v>
+        <v>300.283149675766</v>
       </c>
       <c r="L25" t="n">
-        <v>557.4621512791401</v>
+        <v>557.4621512791391</v>
       </c>
       <c r="M25" t="n">
-        <v>836.8050913469774</v>
+        <v>836.8050913469765</v>
       </c>
       <c r="N25" t="n">
-        <v>1113.04608710776</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O25" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P25" t="n">
-        <v>1581.729743385193</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q25" t="n">
-        <v>1678.203301484817</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R25" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S25" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T25" t="n">
-        <v>1400.589220329743</v>
+        <v>1400.589220329742</v>
       </c>
       <c r="U25" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V25" t="n">
-        <v>1039.052445966845</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W25" t="n">
-        <v>850.6627251852103</v>
+        <v>850.6627251852099</v>
       </c>
       <c r="X25" t="n">
-        <v>711.5230842553817</v>
+        <v>711.5230842553813</v>
       </c>
       <c r="Y25" t="n">
-        <v>583.3517043592134</v>
+        <v>583.351704359213</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1320.171044252416</v>
+        <v>1334.42666243813</v>
       </c>
       <c r="C26" t="n">
-        <v>1251.023297788003</v>
+        <v>1036.191842228249</v>
       </c>
       <c r="D26" t="n">
-        <v>960.522850291859</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="E26" t="n">
-        <v>652.8800066955919</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="F26" t="n">
-        <v>652.8800066955919</v>
+        <v>423.7376375492708</v>
       </c>
       <c r="G26" t="n">
-        <v>334.6579324707834</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="H26" t="n">
-        <v>105.5155633244624</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="I26" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J26" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K26" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L26" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M26" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N26" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O26" t="n">
         <v>2572.923332933306</v>
@@ -6259,19 +6259,19 @@
         <v>2905.82359028062</v>
       </c>
       <c r="U26" t="n">
-        <v>2745.011542002408</v>
+        <v>2759.267160188121</v>
       </c>
       <c r="V26" t="n">
-        <v>2497.845413993115</v>
+        <v>2512.101032178828</v>
       </c>
       <c r="W26" t="n">
-        <v>2221.78706024859</v>
+        <v>2236.042678434304</v>
       </c>
       <c r="X26" t="n">
-        <v>1927.275136468836</v>
+        <v>1941.530754654549</v>
       </c>
       <c r="Y26" t="n">
-        <v>1625.725108676625</v>
+        <v>1639.980726862338</v>
       </c>
     </row>
     <row r="27">
@@ -6311,16 +6311,16 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L27" t="n">
-        <v>862.5399502876207</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M27" t="n">
-        <v>1490.311599914302</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N27" t="n">
-        <v>2146.089571124861</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O27" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P27" t="n">
         <v>2146.089571124861</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>493.0843669551001</v>
+        <v>493.0843669551005</v>
       </c>
       <c r="C28" t="n">
-        <v>417.8199303082777</v>
+        <v>417.8199303082781</v>
       </c>
       <c r="D28" t="n">
-        <v>357.1274984979808</v>
+        <v>357.1274984979812</v>
       </c>
       <c r="E28" t="n">
-        <v>296.5093676443719</v>
+        <v>296.509367644372</v>
       </c>
       <c r="F28" t="n">
-        <v>234.1241141445331</v>
+        <v>234.1241141445333</v>
       </c>
       <c r="G28" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311671</v>
       </c>
       <c r="H28" t="n">
         <v>100.2728717798493</v>
@@ -6384,25 +6384,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J28" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K28" t="n">
         <v>300.2831496757665</v>
       </c>
       <c r="L28" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791394</v>
       </c>
       <c r="M28" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N28" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O28" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P28" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q28" t="n">
         <v>1678.203301484817</v>
@@ -6423,13 +6423,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W28" t="n">
-        <v>850.66272518521</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X28" t="n">
-        <v>711.5230842553814</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y28" t="n">
-        <v>583.351704359213</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1320.171044252415</v>
+        <v>1323.847431809588</v>
       </c>
       <c r="C29" t="n">
-        <v>1021.936224042534</v>
+        <v>1025.612611599707</v>
       </c>
       <c r="D29" t="n">
-        <v>731.4357765463903</v>
+        <v>735.1121641035634</v>
       </c>
       <c r="E29" t="n">
-        <v>423.7929329501232</v>
+        <v>427.4693205072963</v>
       </c>
       <c r="F29" t="n">
-        <v>334.6579324707834</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="G29" t="n">
-        <v>334.6579324707834</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="H29" t="n">
         <v>105.5155633244624</v>
       </c>
       <c r="I29" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J29" t="n">
         <v>206.768900612944</v>
@@ -6469,19 +6469,19 @@
         <v>565.7512566404057</v>
       </c>
       <c r="L29" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M29" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N29" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O29" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P29" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q29" t="n">
         <v>3105.956385205776</v>
@@ -6496,19 +6496,19 @@
         <v>2905.82359028062</v>
       </c>
       <c r="U29" t="n">
-        <v>2745.011542002407</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V29" t="n">
-        <v>2497.845413993114</v>
+        <v>2501.521801550286</v>
       </c>
       <c r="W29" t="n">
-        <v>2221.78706024859</v>
+        <v>2225.463447805762</v>
       </c>
       <c r="X29" t="n">
-        <v>1927.275136468835</v>
+        <v>1930.951524026007</v>
       </c>
       <c r="Y29" t="n">
-        <v>1625.725108676624</v>
+        <v>1629.401496233797</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I30" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J30" t="n">
         <v>175.2341099238429</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>493.0843669551002</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C31" t="n">
-        <v>417.8199303082778</v>
+        <v>417.819930308278</v>
       </c>
       <c r="D31" t="n">
-        <v>357.1274984979809</v>
+        <v>357.1274984979811</v>
       </c>
       <c r="E31" t="n">
-        <v>296.5093676443717</v>
+        <v>296.5093676443721</v>
       </c>
       <c r="F31" t="n">
-        <v>234.124114144533</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G31" t="n">
-        <v>160.8107415311667</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H31" t="n">
-        <v>100.2728717798491</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I31" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J31" t="n">
         <v>125.3967468362513</v>
@@ -6630,7 +6630,7 @@
         <v>557.4621512791396</v>
       </c>
       <c r="M31" t="n">
-        <v>836.8050913469768</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N31" t="n">
         <v>1113.046087107759</v>
@@ -6660,13 +6660,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W31" t="n">
-        <v>850.6627251852101</v>
+        <v>850.6627251852102</v>
       </c>
       <c r="X31" t="n">
-        <v>711.5230842553815</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y31" t="n">
-        <v>583.3517043592132</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1593.142611654257</v>
+        <v>1399.486560287885</v>
       </c>
       <c r="C32" t="n">
-        <v>1296.013883196335</v>
+        <v>1102.357831829963</v>
       </c>
       <c r="D32" t="n">
-        <v>1006.619527452149</v>
+        <v>812.9634760857771</v>
       </c>
       <c r="E32" t="n">
-        <v>700.0827756078409</v>
+        <v>742.3731194762297</v>
       </c>
       <c r="F32" t="n">
-        <v>379.2351101769655</v>
+        <v>421.5254540453541</v>
       </c>
       <c r="G32" t="n">
-        <v>62.11912770411552</v>
+        <v>104.409471572504</v>
       </c>
       <c r="H32" t="n">
-        <v>62.11912770411552</v>
+        <v>104.409471572504</v>
       </c>
       <c r="I32" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J32" t="n">
-        <v>206.7689006129435</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K32" t="n">
         <v>565.7512566404055</v>
@@ -6718,7 +6718,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P32" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q32" t="n">
         <v>3105.956385205776</v>
@@ -6727,25 +6727,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S32" t="n">
-        <v>3035.489603185973</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T32" t="n">
-        <v>2908.035773784537</v>
+        <v>2978.50255580434</v>
       </c>
       <c r="U32" t="n">
-        <v>2748.329817258283</v>
+        <v>2818.796599278085</v>
       </c>
       <c r="V32" t="n">
-        <v>2502.269781000948</v>
+        <v>2572.73656302075</v>
       </c>
       <c r="W32" t="n">
-        <v>2227.317519008383</v>
+        <v>2297.784301028184</v>
       </c>
       <c r="X32" t="n">
-        <v>2198.034520366759</v>
+        <v>2004.378469000388</v>
       </c>
       <c r="Y32" t="n">
-        <v>1897.590584326507</v>
+        <v>1703.934532960136</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I33" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J33" t="n">
         <v>175.2341099238429</v>
@@ -6785,10 +6785,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L33" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M33" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N33" t="n">
         <v>1223.947919817482</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>485.3417246913905</v>
+        <v>485.3417246913917</v>
       </c>
       <c r="C34" t="n">
-        <v>411.1833797965266</v>
+        <v>411.1833797965276</v>
       </c>
       <c r="D34" t="n">
-        <v>351.5970397381882</v>
+        <v>351.5970397381891</v>
       </c>
       <c r="E34" t="n">
-        <v>292.0850006365376</v>
+        <v>292.0850006365383</v>
       </c>
       <c r="F34" t="n">
-        <v>230.8058388886575</v>
+        <v>230.805838888658</v>
       </c>
       <c r="G34" t="n">
-        <v>158.5985580272499</v>
+        <v>158.5985580272502</v>
       </c>
       <c r="H34" t="n">
-        <v>99.16678002789075</v>
+        <v>99.16678002789092</v>
       </c>
       <c r="I34" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J34" t="n">
-        <v>100.1107151222526</v>
+        <v>126.4808273623457</v>
       </c>
       <c r="K34" t="n">
-        <v>276.0811984878624</v>
+        <v>302.4513107279553</v>
       </c>
       <c r="L34" t="n">
-        <v>534.34428061733</v>
+        <v>534.3442806173338</v>
       </c>
       <c r="M34" t="n">
-        <v>814.771301211262</v>
+        <v>814.7713012112655</v>
       </c>
       <c r="N34" t="n">
-        <v>1092.096377498139</v>
+        <v>1092.096377498142</v>
       </c>
       <c r="O34" t="n">
-        <v>1348.936586795515</v>
+        <v>1348.936586795518</v>
       </c>
       <c r="P34" t="n">
-        <v>1562.948194827761</v>
+        <v>1562.948194827764</v>
       </c>
       <c r="Q34" t="n">
-        <v>1660.50583345348</v>
+        <v>1660.505833453483</v>
       </c>
       <c r="R34" t="n">
-        <v>1632.651617125204</v>
+        <v>1632.651617125207</v>
       </c>
       <c r="S34" t="n">
-        <v>1525.8823063469</v>
+        <v>1525.882306346903</v>
       </c>
       <c r="T34" t="n">
-        <v>1386.210027554281</v>
+        <v>1386.210027554284</v>
       </c>
       <c r="U34" t="n">
-        <v>1196.818008835329</v>
+        <v>1196.818008835331</v>
       </c>
       <c r="V34" t="n">
-        <v>1026.8854366953</v>
+        <v>1026.885436695302</v>
       </c>
       <c r="W34" t="n">
-        <v>839.6018076656246</v>
+        <v>839.6018076656264</v>
       </c>
       <c r="X34" t="n">
-        <v>701.5682584877546</v>
+        <v>701.5682584877562</v>
       </c>
       <c r="Y34" t="n">
-        <v>574.5029703435449</v>
+        <v>574.5029703435463</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1546.353250444158</v>
+        <v>1674.438822280451</v>
       </c>
       <c r="C35" t="n">
-        <v>1249.224521986235</v>
+        <v>1377.310093822529</v>
       </c>
       <c r="D35" t="n">
-        <v>959.8301662420502</v>
+        <v>1087.915738078343</v>
       </c>
       <c r="E35" t="n">
-        <v>653.2934143977416</v>
+        <v>781.3789862340343</v>
       </c>
       <c r="F35" t="n">
-        <v>332.4457489668663</v>
+        <v>607.2713875713282</v>
       </c>
       <c r="G35" t="n">
-        <v>332.4457489668663</v>
+        <v>290.1554050984781</v>
       </c>
       <c r="H35" t="n">
-        <v>104.4094715725038</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129436</v>
@@ -6955,7 +6955,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
         <v>3105.956385205776</v>
@@ -6964,25 +6964,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3035.489603185973</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T35" t="n">
-        <v>2908.035773784537</v>
+        <v>2978.50255580434</v>
       </c>
       <c r="U35" t="n">
-        <v>2748.329817258283</v>
+        <v>2818.796599278085</v>
       </c>
       <c r="V35" t="n">
-        <v>2502.269781000948</v>
+        <v>2572.73656302075</v>
       </c>
       <c r="W35" t="n">
-        <v>2227.317519008383</v>
+        <v>2572.73656302075</v>
       </c>
       <c r="X35" t="n">
-        <v>2151.24515915666</v>
+        <v>2279.330730992954</v>
       </c>
       <c r="Y35" t="n">
-        <v>1850.801223116408</v>
+        <v>1978.886794952702</v>
       </c>
     </row>
     <row r="36">
@@ -7013,19 +7013,19 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>596.176270190801</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>485.3417246913905</v>
+        <v>485.3417246913917</v>
       </c>
       <c r="C37" t="n">
-        <v>411.1833797965266</v>
+        <v>411.1833797965276</v>
       </c>
       <c r="D37" t="n">
-        <v>351.5970397381882</v>
+        <v>351.5970397381891</v>
       </c>
       <c r="E37" t="n">
-        <v>292.0850006365376</v>
+        <v>292.0850006365383</v>
       </c>
       <c r="F37" t="n">
-        <v>230.8058388886575</v>
+        <v>230.805838888658</v>
       </c>
       <c r="G37" t="n">
-        <v>158.5985580272499</v>
+        <v>158.5985580272502</v>
       </c>
       <c r="H37" t="n">
-        <v>99.16678002789075</v>
+        <v>99.16678002789092</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>126.4808273623459</v>
+        <v>126.4808273623457</v>
       </c>
       <c r="K37" t="n">
-        <v>302.4513107279556</v>
+        <v>302.4513107279553</v>
       </c>
       <c r="L37" t="n">
-        <v>534.34428061733</v>
+        <v>560.7143928574228</v>
       </c>
       <c r="M37" t="n">
-        <v>814.771301211262</v>
+        <v>841.1414134513545</v>
       </c>
       <c r="N37" t="n">
-        <v>1092.096377498139</v>
+        <v>1092.096377498142</v>
       </c>
       <c r="O37" t="n">
-        <v>1348.936586795515</v>
+        <v>1348.936586795518</v>
       </c>
       <c r="P37" t="n">
-        <v>1562.948194827761</v>
+        <v>1562.948194827764</v>
       </c>
       <c r="Q37" t="n">
-        <v>1660.50583345348</v>
+        <v>1660.505833453483</v>
       </c>
       <c r="R37" t="n">
-        <v>1632.651617125204</v>
+        <v>1632.651617125207</v>
       </c>
       <c r="S37" t="n">
-        <v>1525.8823063469</v>
+        <v>1525.882306346903</v>
       </c>
       <c r="T37" t="n">
-        <v>1386.210027554281</v>
+        <v>1386.210027554284</v>
       </c>
       <c r="U37" t="n">
-        <v>1196.818008835329</v>
+        <v>1196.818008835331</v>
       </c>
       <c r="V37" t="n">
-        <v>1026.8854366953</v>
+        <v>1026.885436695302</v>
       </c>
       <c r="W37" t="n">
-        <v>839.6018076656246</v>
+        <v>839.6018076656264</v>
       </c>
       <c r="X37" t="n">
-        <v>701.5682584877546</v>
+        <v>701.5682584877562</v>
       </c>
       <c r="Y37" t="n">
-        <v>574.5029703435449</v>
+        <v>574.5029703435463</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1329.019778268084</v>
+        <v>1488.725734794337</v>
       </c>
       <c r="C38" t="n">
-        <v>1031.891049810162</v>
+        <v>1191.597006336415</v>
       </c>
       <c r="D38" t="n">
-        <v>742.4966940659763</v>
+        <v>902.202650592229</v>
       </c>
       <c r="E38" t="n">
-        <v>742.4966940659763</v>
+        <v>595.6658987479202</v>
       </c>
       <c r="F38" t="n">
-        <v>421.6490286351009</v>
+        <v>274.8182333170447</v>
       </c>
       <c r="G38" t="n">
-        <v>104.533046162251</v>
+        <v>274.8182333170447</v>
       </c>
       <c r="H38" t="n">
-        <v>104.4094715725038</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
         <v>206.7689006129436</v>
@@ -7192,7 +7192,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
         <v>3105.956385205776</v>
@@ -7207,19 +7207,19 @@
         <v>2908.035773784537</v>
       </c>
       <c r="U38" t="n">
-        <v>2748.329817258283</v>
+        <v>2908.035773784537</v>
       </c>
       <c r="V38" t="n">
-        <v>2502.269781000948</v>
+        <v>2661.975737527202</v>
       </c>
       <c r="W38" t="n">
-        <v>2227.317519008383</v>
+        <v>2387.023475534636</v>
       </c>
       <c r="X38" t="n">
-        <v>1933.911686980586</v>
+        <v>2093.61764350684</v>
       </c>
       <c r="Y38" t="n">
-        <v>1633.467750940334</v>
+        <v>1793.173707466588</v>
       </c>
     </row>
     <row r="39">
@@ -7250,19 +7250,19 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>485.3417246913905</v>
+        <v>485.3417246913917</v>
       </c>
       <c r="C40" t="n">
-        <v>411.1833797965266</v>
+        <v>411.1833797965276</v>
       </c>
       <c r="D40" t="n">
-        <v>351.5970397381882</v>
+        <v>351.5970397381891</v>
       </c>
       <c r="E40" t="n">
-        <v>292.0850006365376</v>
+        <v>292.0850006365383</v>
       </c>
       <c r="F40" t="n">
-        <v>230.8058388886575</v>
+        <v>230.805838888658</v>
       </c>
       <c r="G40" t="n">
-        <v>158.5985580272499</v>
+        <v>158.5985580272502</v>
       </c>
       <c r="H40" t="n">
-        <v>99.16678002789075</v>
+        <v>99.16678002789092</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>100.1107151222526</v>
+        <v>126.4808273623457</v>
       </c>
       <c r="K40" t="n">
-        <v>276.0811984878624</v>
+        <v>302.4513107279553</v>
       </c>
       <c r="L40" t="n">
-        <v>534.34428061733</v>
+        <v>560.7143928574228</v>
       </c>
       <c r="M40" t="n">
-        <v>814.771301211262</v>
+        <v>841.1414134513545</v>
       </c>
       <c r="N40" t="n">
-        <v>1092.096377498139</v>
+        <v>1118.466489738231</v>
       </c>
       <c r="O40" t="n">
-        <v>1348.936586795515</v>
+        <v>1375.306699035607</v>
       </c>
       <c r="P40" t="n">
-        <v>1562.948194827761</v>
+        <v>1589.318307067853</v>
       </c>
       <c r="Q40" t="n">
-        <v>1660.50583345348</v>
+        <v>1660.505833453483</v>
       </c>
       <c r="R40" t="n">
-        <v>1632.651617125204</v>
+        <v>1632.651617125207</v>
       </c>
       <c r="S40" t="n">
-        <v>1525.8823063469</v>
+        <v>1525.882306346903</v>
       </c>
       <c r="T40" t="n">
-        <v>1386.210027554281</v>
+        <v>1386.210027554284</v>
       </c>
       <c r="U40" t="n">
-        <v>1196.818008835329</v>
+        <v>1196.818008835331</v>
       </c>
       <c r="V40" t="n">
-        <v>1026.8854366953</v>
+        <v>1026.885436695302</v>
       </c>
       <c r="W40" t="n">
-        <v>839.6018076656246</v>
+        <v>839.6018076656264</v>
       </c>
       <c r="X40" t="n">
-        <v>701.5682584877546</v>
+        <v>701.5682584877562</v>
       </c>
       <c r="Y40" t="n">
-        <v>574.5029703435449</v>
+        <v>574.5029703435463</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1348.046224455931</v>
+        <v>2067.8460180902</v>
       </c>
       <c r="C41" t="n">
-        <v>1348.046224455931</v>
+        <v>1675.776608345089</v>
       </c>
       <c r="D41" t="n">
-        <v>1348.046224455931</v>
+        <v>1291.441571313715</v>
       </c>
       <c r="E41" t="n">
-        <v>1348.046224455931</v>
+        <v>889.9641381822178</v>
       </c>
       <c r="F41" t="n">
-        <v>934.3837753012813</v>
+        <v>474.1757914641539</v>
       </c>
       <c r="G41" t="n">
-        <v>522.327111541243</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H41" t="n">
-        <v>199.3501528596921</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L41" t="n">
         <v>1059.071548358934</v>
@@ -7429,34 +7429,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P41" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3069.069563243256</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3069.069563243256</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T41" t="n">
-        <v>2846.675052554631</v>
+        <v>2883.561874517151</v>
       </c>
       <c r="U41" t="n">
-        <v>2846.675052554631</v>
+        <v>2883.561874517151</v>
       </c>
       <c r="V41" t="n">
-        <v>2505.674335010108</v>
+        <v>2542.561156972628</v>
       </c>
       <c r="W41" t="n">
-        <v>2135.781391730354</v>
+        <v>2542.561156972628</v>
       </c>
       <c r="X41" t="n">
-        <v>1747.43487841537</v>
+        <v>2463.23063541764</v>
       </c>
       <c r="Y41" t="n">
-        <v>1747.43487841537</v>
+        <v>2067.8460180902</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1586.98683337017</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C42" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D42" t="n">
-        <v>1306.243635551743</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E42" t="n">
-        <v>1169.797144662631</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F42" t="n">
-        <v>1045.365338545762</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G42" t="n">
-        <v>925.3055206176268</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H42" t="n">
-        <v>837.0081042182278</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>787.6208502301394</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>900.7358324498667</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>1220.474978512093</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>1704.041064410407</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1704.041064410407</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
-        <v>1949.449642343507</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>2465.969924934488</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2871.591293650885</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R42" t="n">
-        <v>3082.03934210384</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S42" t="n">
-        <v>2947.108665003709</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T42" t="n">
-        <v>2770.124853202617</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U42" t="n">
-        <v>2560.061709881259</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V42" t="n">
-        <v>2337.521708252326</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W42" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X42" t="n">
-        <v>1918.097384735624</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y42" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2637.734312267911</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C43" t="n">
-        <v>2637.734312267911</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D43" t="n">
-        <v>2637.734312267911</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E43" t="n">
-        <v>2483.281591879072</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F43" t="n">
-        <v>2483.281591879072</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G43" t="n">
-        <v>2483.281591879072</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H43" t="n">
-        <v>2328.909132592525</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I43" t="n">
-        <v>2196.920798981561</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>2196.920798981561</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>2279.839920617597</v>
+        <v>145.0382493401518</v>
       </c>
       <c r="L43" t="n">
-        <v>2445.051641017492</v>
+        <v>310.249969740046</v>
       </c>
       <c r="M43" t="n">
-        <v>2632.427299881851</v>
+        <v>497.6256286044045</v>
       </c>
       <c r="N43" t="n">
-        <v>2816.701014439154</v>
+        <v>681.8993431617081</v>
       </c>
       <c r="O43" t="n">
-        <v>2980.489862006957</v>
+        <v>845.6881907295106</v>
       </c>
       <c r="P43" t="n">
-        <v>3101.45010830963</v>
+        <v>966.6484370321836</v>
       </c>
       <c r="Q43" t="n">
-        <v>3105.956385205776</v>
+        <v>971.154713928329</v>
       </c>
       <c r="R43" t="n">
-        <v>3105.956385205776</v>
+        <v>971.154713928329</v>
       </c>
       <c r="S43" t="n">
-        <v>3105.956385205776</v>
+        <v>861.6503684921786</v>
       </c>
       <c r="T43" t="n">
-        <v>2871.343425125969</v>
+        <v>861.6503684921786</v>
       </c>
       <c r="U43" t="n">
-        <v>2871.343425125969</v>
+        <v>577.317668486038</v>
       </c>
       <c r="V43" t="n">
-        <v>2871.343425125969</v>
+        <v>577.317668486038</v>
       </c>
       <c r="W43" t="n">
-        <v>2871.343425125969</v>
+        <v>295.0933581691741</v>
       </c>
       <c r="X43" t="n">
-        <v>2859.740281699309</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y43" t="n">
-        <v>2637.734312267911</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2143.718964895952</v>
+        <v>1334.77188857777</v>
       </c>
       <c r="C44" t="n">
-        <v>1751.649555150842</v>
+        <v>942.7024788326594</v>
       </c>
       <c r="D44" t="n">
-        <v>1751.649555150842</v>
+        <v>942.7024788326594</v>
       </c>
       <c r="E44" t="n">
-        <v>1350.172122019345</v>
+        <v>942.7024788326594</v>
       </c>
       <c r="F44" t="n">
-        <v>934.3837753012813</v>
+        <v>797.1527501457049</v>
       </c>
       <c r="G44" t="n">
-        <v>522.327111541243</v>
+        <v>385.0960863856665</v>
       </c>
       <c r="H44" t="n">
-        <v>199.3501528596921</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7689006129435</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K44" t="n">
         <v>565.7512566404055</v>
@@ -7666,34 +7666,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3069.069563243256</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>2903.662099936265</v>
+        <v>2940.548921898785</v>
       </c>
       <c r="T44" t="n">
-        <v>2903.662099936265</v>
+        <v>2718.15441121016</v>
       </c>
       <c r="U44" t="n">
-        <v>2649.015462122823</v>
+        <v>2463.507773396717</v>
       </c>
       <c r="V44" t="n">
-        <v>2543.107618855391</v>
+        <v>2122.507055852194</v>
       </c>
       <c r="W44" t="n">
-        <v>2543.107618855391</v>
+        <v>2122.507055852194</v>
       </c>
       <c r="X44" t="n">
-        <v>2543.107618855391</v>
+        <v>1734.160542537209</v>
       </c>
       <c r="Y44" t="n">
-        <v>2543.107618855391</v>
+        <v>1734.160542537209</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1586.98683337017</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C45" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D45" t="n">
-        <v>1306.243635551743</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E45" t="n">
-        <v>1169.797144662631</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F45" t="n">
-        <v>1045.365338545762</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G45" t="n">
-        <v>925.3055206176268</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H45" t="n">
-        <v>837.0081042182278</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>787.6208502301394</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>900.7358324498667</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>1220.474978512093</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>1704.041064410407</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>2331.812714037088</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N45" t="n">
-        <v>2465.969924934488</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>2465.969924934488</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2871.591293650885</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R45" t="n">
-        <v>3082.03934210384</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S45" t="n">
-        <v>2947.108665003709</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T45" t="n">
-        <v>2770.124853202617</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U45" t="n">
-        <v>2560.061709881259</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V45" t="n">
-        <v>2337.521708252326</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W45" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X45" t="n">
-        <v>1918.097384735624</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y45" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>377.7520990235661</v>
+        <v>231.218153886168</v>
       </c>
       <c r="C46" t="n">
-        <v>377.7520990235661</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D46" t="n">
-        <v>377.7520990235661</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E46" t="n">
-        <v>377.7520990235661</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F46" t="n">
-        <v>377.7520990235661</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G46" t="n">
-        <v>377.7520990235661</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H46" t="n">
-        <v>223.3796397370186</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I46" t="n">
-        <v>91.39130612605501</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>145.038249340152</v>
+        <v>145.0382493401518</v>
       </c>
       <c r="L46" t="n">
-        <v>310.2499697400464</v>
+        <v>310.249969740046</v>
       </c>
       <c r="M46" t="n">
-        <v>497.6256286044049</v>
+        <v>497.6256286044045</v>
       </c>
       <c r="N46" t="n">
-        <v>681.8993431617087</v>
+        <v>681.8993431617081</v>
       </c>
       <c r="O46" t="n">
-        <v>845.6881907295113</v>
+        <v>845.6881907295106</v>
       </c>
       <c r="P46" t="n">
-        <v>966.6484370321846</v>
+        <v>966.6484370321836</v>
       </c>
       <c r="Q46" t="n">
-        <v>971.1547139283301</v>
+        <v>971.1547139283289</v>
       </c>
       <c r="R46" t="n">
-        <v>848.3598163128656</v>
+        <v>971.1547139283289</v>
       </c>
       <c r="S46" t="n">
-        <v>646.6498242473735</v>
+        <v>971.1547139283289</v>
       </c>
       <c r="T46" t="n">
-        <v>610.7263294886244</v>
+        <v>968.4226640994888</v>
       </c>
       <c r="U46" t="n">
-        <v>610.7263294886244</v>
+        <v>968.4226640994888</v>
       </c>
       <c r="V46" t="n">
-        <v>610.7263294886244</v>
+        <v>968.4226640994888</v>
       </c>
       <c r="W46" t="n">
-        <v>610.7263294886244</v>
+        <v>686.1983537826247</v>
       </c>
       <c r="X46" t="n">
-        <v>377.7520990235661</v>
+        <v>453.2241233175662</v>
       </c>
       <c r="Y46" t="n">
-        <v>377.7520990235661</v>
+        <v>231.218153886168</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
@@ -8066,16 +8066,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>609.3287968270082</v>
       </c>
       <c r="N3" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O3" t="n">
-        <v>314.1682372053023</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8224,7 +8224,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>701.2411122488188</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N5" t="n">
         <v>682.2612020826953</v>
@@ -8294,16 +8294,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>262.5710112738847</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>726.4998994499999</v>
+        <v>115.0989755892052</v>
       </c>
       <c r="N6" t="n">
         <v>747.7741039759435</v>
@@ -8312,7 +8312,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8534,10 +8534,10 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>262.5710112738847</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
         <v>726.4998994499999</v>
@@ -8546,13 +8546,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P9" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8768,10 +8768,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
@@ -8783,13 +8783,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.5494662449327</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9005,19 +9005,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>112.3087888732267</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>429.0180294423952</v>
       </c>
       <c r="M15" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9026,7 +9026,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9254,13 +9254,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>709.3350389104421</v>
+        <v>597.3159339866204</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
         <v>327.7205688679246</v>
@@ -9479,10 +9479,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>133.4455245943154</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
@@ -9497,7 +9497,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>110.5765941352903</v>
       </c>
       <c r="Q21" t="n">
         <v>327.7205688679246</v>
@@ -9719,16 +9719,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>489.2920096079789</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9959,19 +9959,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>461.3398360504045</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10433,13 +10433,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>163.9964000092958</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10667,16 +10667,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>515.2544481366739</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10901,19 +10901,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>115.0989755892052</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11077,7 +11077,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P41" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q41" t="n">
         <v>331.2113854294513</v>
@@ -11150,7 +11150,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>333.259565311844</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11384,13 +11384,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>220.8844470939647</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23260,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D11" t="n">
-        <v>287.5954430211825</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>214.9725083336936</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414339</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>48.11155155166267</v>
       </c>
     </row>
     <row r="12">
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404351</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23557,10 +23557,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>187.0778345637931</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>257.9349795978353</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>275.717005900017</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>70.85714503404351</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,13 +23791,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>244.6944667292004</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>3.127865400917813</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23980,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>73.98501043496211</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>14.35770615252643</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,13 +24022,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V20" t="n">
-        <v>244.6944667292004</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>27.11267262220537</v>
+        <v>272.5068785254017</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>291.5668045419573</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24445,22 +24445,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>226.796203008013</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
-        <v>318.7342196110055</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>14.1130620038561</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24691,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>230.4905691364592</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>315.0398534825604</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>3.639623681599915</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24925,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>233.5869312824137</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>225.7559146204188</v>
+        <v>225.755914620419</v>
       </c>
       <c r="I32" t="n">
-        <v>41.8674404297044</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>69.7621141996047</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>261.4816050523114</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25165,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>145.2726661004877</v>
       </c>
       <c r="G35" t="n">
-        <v>313.9448226481214</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.86744042970457</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>69.7621141996047</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25216,10 +25216,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>272.2027393726402</v>
       </c>
       <c r="X35" t="n">
-        <v>215.1601374543131</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25399,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>303.4713843258655</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>313.9448226481216</v>
       </c>
       <c r="H38" t="n">
-        <v>225.6335757765691</v>
+        <v>15.18380006361912</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.86744042970457</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>158.1088969609921</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>395.3947674198441</v>
       </c>
       <c r="C41" t="n">
-        <v>388.1487156476597</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>380.4916866610599</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>397.4626588001819</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>2.104638587779618</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>319.7471890947354</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>135.858714904021</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>36.51795374289446</v>
       </c>
       <c r="S41" t="n">
-        <v>163.753388673921</v>
+        <v>163.7533886739211</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>252.1001714353084</v>
+        <v>252.1001714353085</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>366.1940138469566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>305.9258318423967</v>
       </c>
       <c r="Y41" t="n">
-        <v>391.4307711541659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>182.2609076699493</v>
+        <v>182.2609076699495</v>
       </c>
       <c r="C43" t="n">
-        <v>167.4080359202317</v>
+        <v>167.4080359202318</v>
       </c>
       <c r="D43" t="n">
-        <v>152.9817511320714</v>
+        <v>152.9817511320716</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>152.9081931849507</v>
       </c>
       <c r="F43" t="n">
-        <v>154.6576446047178</v>
+        <v>154.657644604718</v>
       </c>
       <c r="G43" t="n">
-        <v>165.4764825271099</v>
+        <v>165.4764825271101</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>152.8287346936821</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>130.6684502748541</v>
       </c>
       <c r="J43" t="n">
-        <v>28.9794566377201</v>
+        <v>28.97945663772025</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>121.5669486393098</v>
+        <v>121.56694863931</v>
       </c>
       <c r="S43" t="n">
-        <v>199.6928921448371</v>
+        <v>91.2835901630484</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>232.2668304790094</v>
       </c>
       <c r="U43" t="n">
-        <v>281.4893730060791</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>262.2245208929451</v>
+        <v>262.2245208929452</v>
       </c>
       <c r="W43" t="n">
-        <v>279.4020672136952</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>219.1573761680147</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>219.7859097370842</v>
       </c>
     </row>
     <row r="44">
@@ -25870,13 +25870,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>380.4916866610599</v>
+        <v>380.4916866610602</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>397.4626588001821</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>267.5362318507983</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>135.858714904021</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>36.51795374289449</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>220.1705655817385</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>232.7419455343202</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>366.1940138469564</v>
+        <v>366.1940138469566</v>
       </c>
       <c r="X44" t="n">
-        <v>384.4630481818348</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>391.4307711541659</v>
+        <v>391.4307711541661</v>
       </c>
     </row>
     <row r="45">
@@ -26022,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>182.2609076699493</v>
+        <v>182.2609076699495</v>
       </c>
       <c r="C46" t="n">
-        <v>167.4080359202317</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>152.9817511320714</v>
+        <v>152.9817511320716</v>
       </c>
       <c r="E46" t="n">
-        <v>152.9081931849505</v>
+        <v>152.9081931849507</v>
       </c>
       <c r="F46" t="n">
-        <v>154.6576446047178</v>
+        <v>154.657644604718</v>
       </c>
       <c r="G46" t="n">
-        <v>165.4764825271099</v>
+        <v>165.4764825271101</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>152.8287346936822</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>130.6684502748541</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>28.97945663772028</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>121.56694863931</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>199.6928921448373</v>
       </c>
       <c r="T46" t="n">
-        <v>196.7025706678476</v>
+        <v>229.5621011484577</v>
       </c>
       <c r="U46" t="n">
-        <v>281.4893730060791</v>
+        <v>281.4893730060793</v>
       </c>
       <c r="V46" t="n">
-        <v>262.2245208929451</v>
+        <v>262.2245208929452</v>
       </c>
       <c r="W46" t="n">
-        <v>279.4020672136952</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>219.7859097370841</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>606070.7223834905</v>
+        <v>606070.7223834906</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>606070.7223834905</v>
+        <v>606070.7223834906</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>606070.7223834904</v>
+        <v>606070.7223834906</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>606070.7223834904</v>
+        <v>606070.7223834905</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>606070.7223834905</v>
+        <v>606070.7223834906</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>607214.7558477707</v>
+        <v>607214.7558477705</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>607214.7558477707</v>
+        <v>607214.7558477705</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>607214.7558477707</v>
+        <v>607214.7558477705</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>459952.6497748458</v>
+        <v>459952.6497748455</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>459952.649774846</v>
+        <v>459952.6497748454</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>631162.6233267488</v>
+        <v>631162.623326749</v>
       </c>
       <c r="C2" t="n">
-        <v>631162.6233267487</v>
+        <v>631162.623326749</v>
       </c>
       <c r="D2" t="n">
-        <v>631162.6233267488</v>
+        <v>631162.6233267491</v>
       </c>
       <c r="E2" t="n">
-        <v>593166.4293913341</v>
+        <v>593166.4293913336</v>
       </c>
       <c r="F2" t="n">
-        <v>593166.4293913334</v>
+        <v>593166.4293913349</v>
       </c>
       <c r="G2" t="n">
-        <v>593166.4293913337</v>
+        <v>593166.4293913344</v>
       </c>
       <c r="H2" t="n">
-        <v>593166.4293913336</v>
+        <v>593166.4293913343</v>
       </c>
       <c r="I2" t="n">
-        <v>593166.4293913335</v>
+        <v>593166.4293913343</v>
       </c>
       <c r="J2" t="n">
-        <v>593166.4293913341</v>
+        <v>593166.4293913345</v>
       </c>
       <c r="K2" t="n">
-        <v>593166.4293913337</v>
+        <v>593166.4293913342</v>
       </c>
       <c r="L2" t="n">
-        <v>594310.4628556139</v>
+        <v>594310.4628556136</v>
       </c>
       <c r="M2" t="n">
-        <v>594310.4628556139</v>
+        <v>594310.4628556137</v>
       </c>
       <c r="N2" t="n">
-        <v>594310.4628556138</v>
+        <v>594310.4628556136</v>
       </c>
       <c r="O2" t="n">
         <v>447048.3567826892</v>
       </c>
       <c r="P2" t="n">
-        <v>447048.3567826892</v>
+        <v>447048.3567826883</v>
       </c>
     </row>
     <row r="3">
@@ -26377,7 +26377,7 @@
         <v>75193.01957945315</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26392,10 +26392,10 @@
         <v>278356.7326921482</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>876.0246675511796</v>
+        <v>876.0246675510286</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134705.7368742063</v>
+        <v>134705.7368742064</v>
       </c>
       <c r="C4" t="n">
         <v>134705.7368742064</v>
@@ -26426,10 +26426,10 @@
         <v>134705.7368742064</v>
       </c>
       <c r="E4" t="n">
-        <v>110143.3843639944</v>
+        <v>110143.3843639945</v>
       </c>
       <c r="F4" t="n">
-        <v>110143.3843639944</v>
+        <v>110143.3843639945</v>
       </c>
       <c r="G4" t="n">
         <v>110143.3843639945</v>
@@ -26447,19 +26447,19 @@
         <v>110143.3843639945</v>
       </c>
       <c r="L4" t="n">
-        <v>110884.1267998679</v>
+        <v>110884.1267998677</v>
       </c>
       <c r="M4" t="n">
-        <v>110884.1267998679</v>
+        <v>110884.1267998678</v>
       </c>
       <c r="N4" t="n">
-        <v>110884.1267998679</v>
+        <v>110884.1267998678</v>
       </c>
       <c r="O4" t="n">
-        <v>14609.40350636943</v>
+        <v>14609.40350636926</v>
       </c>
       <c r="P4" t="n">
-        <v>14609.40350636943</v>
+        <v>14609.40350636924</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>80838.13705512779</v>
       </c>
       <c r="E5" t="n">
+        <v>55112.2895089091</v>
+      </c>
+      <c r="F5" t="n">
         <v>55112.28950890911</v>
       </c>
-      <c r="F5" t="n">
-        <v>55112.28950890912</v>
-      </c>
       <c r="G5" t="n">
-        <v>55112.2895089091</v>
+        <v>55112.28950890911</v>
       </c>
       <c r="H5" t="n">
-        <v>55112.2895089091</v>
+        <v>55112.28950890911</v>
       </c>
       <c r="I5" t="n">
         <v>55112.2895089091</v>
@@ -26499,19 +26499,19 @@
         <v>55112.2895089091</v>
       </c>
       <c r="L5" t="n">
-        <v>55204.34765612955</v>
+        <v>55204.34765612954</v>
       </c>
       <c r="M5" t="n">
-        <v>55204.34765612955</v>
+        <v>55204.34765612954</v>
       </c>
       <c r="N5" t="n">
-        <v>55204.34765612955</v>
+        <v>55204.34765612954</v>
       </c>
       <c r="O5" t="n">
-        <v>47302.59520234824</v>
+        <v>47302.59520234823</v>
       </c>
       <c r="P5" t="n">
-        <v>47302.59520234824</v>
+        <v>47302.59520234823</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>155399.3939775859</v>
       </c>
       <c r="C6" t="n">
-        <v>415618.7493974146</v>
+        <v>415618.7493974147</v>
       </c>
       <c r="D6" t="n">
-        <v>415618.7493974146</v>
+        <v>415618.7493974149</v>
       </c>
       <c r="E6" t="n">
-        <v>352717.7359389774</v>
+        <v>352609.1753848757</v>
       </c>
       <c r="F6" t="n">
-        <v>427910.7555184298</v>
+        <v>427802.1949643301</v>
       </c>
       <c r="G6" t="n">
-        <v>427910.7555184301</v>
+        <v>427802.1949643296</v>
       </c>
       <c r="H6" t="n">
-        <v>427910.75551843</v>
+        <v>427802.1949643295</v>
       </c>
       <c r="I6" t="n">
-        <v>427910.7555184299</v>
+        <v>427802.1949643295</v>
       </c>
       <c r="J6" t="n">
-        <v>149554.0228262823</v>
+        <v>149445.4622721815</v>
       </c>
       <c r="K6" t="n">
-        <v>427910.7555184301</v>
+        <v>427802.1949643294</v>
       </c>
       <c r="L6" t="n">
-        <v>427345.9637320653</v>
+        <v>427240.6718450049</v>
       </c>
       <c r="M6" t="n">
-        <v>428221.9883996164</v>
+        <v>428116.6965125561</v>
       </c>
       <c r="N6" t="n">
-        <v>428221.9883996163</v>
+        <v>428116.6965125559</v>
       </c>
       <c r="O6" t="n">
-        <v>385136.3580739716</v>
+        <v>384610.3173124172</v>
       </c>
       <c r="P6" t="n">
-        <v>385136.3580739715</v>
+        <v>384610.3173124164</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G2" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H2" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I2" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="M2" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="N2" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="O2" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438816</v>
       </c>
       <c r="P2" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438788</v>
       </c>
     </row>
     <row r="3">
@@ -26798,40 +26798,40 @@
         <v>776.4890963014441</v>
       </c>
       <c r="E4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014439</v>
       </c>
       <c r="J4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="K4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="L4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="M4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26916,28 +26916,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>93.99127447431644</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4.263256414560601e-14</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>93.99127447431643</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>93.99127447431644</v>
-      </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>1.095030834438975</v>
+        <v>1.095030834438786</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014443</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27153,25 +27153,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>93.99127447431644</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.263256414560601e-14</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>93.99127447431643</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>93.99127447431644</v>
-      </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>95.53609899752223</v>
+        <v>153.3401560482884</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27590,19 +27590,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>167.4398336038191</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>189.9046251158117</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27624,13 +27624,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -27672,13 +27672,13 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>66.85658638455536</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>68.29889674993439</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>66.12369447580235</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27830,19 +27830,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>165.708020294746</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>117.6495848139687</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -27918,10 +27918,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>217.5897336659642</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -28025,7 +28025,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -28034,7 +28034,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28067,19 +28067,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>165.708020294746</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>94.26662855483956</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C17" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D17" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E17" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F17" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G17" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H17" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I17" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T17" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U17" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V17" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W17" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X17" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y17" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C19" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D19" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E19" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F19" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G19" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H19" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I19" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J19" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K19" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L19" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M19" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N19" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O19" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P19" t="n">
-        <v>93.99127447431709</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q19" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R19" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S19" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T19" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U19" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V19" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W19" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X19" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C20" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D20" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E20" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F20" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G20" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H20" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I20" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T20" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U20" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V20" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W20" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X20" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y20" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C22" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D22" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E22" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F22" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G22" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H22" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I22" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J22" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K22" t="n">
-        <v>93.99127447431709</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L22" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M22" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N22" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O22" t="n">
-        <v>93.99127447431643</v>
+        <v>93.9912744743159</v>
       </c>
       <c r="P22" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q22" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R22" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S22" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T22" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U22" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V22" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W22" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X22" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C23" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D23" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E23" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F23" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G23" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H23" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I23" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T23" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U23" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V23" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W23" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X23" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y23" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C25" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D25" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E25" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F25" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G25" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H25" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I25" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J25" t="n">
-        <v>93.99127447431712</v>
+        <v>93.99127447431599</v>
       </c>
       <c r="K25" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L25" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M25" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N25" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O25" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P25" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q25" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R25" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S25" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T25" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U25" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V25" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W25" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X25" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="C32" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="D32" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="E32" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="F32" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="G32" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="H32" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="I32" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="T32" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="U32" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="V32" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="W32" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="X32" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="Y32" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="C34" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="D34" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="E34" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="F34" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="G34" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="H34" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="I34" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="J34" t="n">
-        <v>68.44982829856019</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="K34" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="L34" t="n">
-        <v>95.08630530875541</v>
+        <v>68.44982829856428</v>
       </c>
       <c r="M34" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="N34" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="O34" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="P34" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="Q34" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="R34" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="S34" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="T34" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="U34" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="V34" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="W34" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="X34" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="Y34" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="C35" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="D35" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="E35" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="F35" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="G35" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="H35" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="I35" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="T35" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="U35" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="V35" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="W35" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="X35" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="Y35" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="C37" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="D37" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="E37" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="F37" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="G37" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="H37" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="I37" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="J37" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="K37" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="L37" t="n">
-        <v>68.44982829856022</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="M37" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="N37" t="n">
-        <v>95.08630530875541</v>
+        <v>68.44982829856428</v>
       </c>
       <c r="O37" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="P37" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="Q37" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="R37" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="S37" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="T37" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="U37" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="V37" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="W37" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="X37" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="Y37" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="C38" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="D38" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="E38" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="F38" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="G38" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="H38" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="I38" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="T38" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="U38" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="V38" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="W38" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="X38" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="Y38" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="C40" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="D40" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="E40" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="F40" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="G40" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="H40" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="I40" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="J40" t="n">
-        <v>68.44982829856019</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="K40" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="L40" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="M40" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="N40" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="O40" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="P40" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="Q40" t="n">
-        <v>95.08630530875541</v>
+        <v>68.44982829856447</v>
       </c>
       <c r="R40" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="S40" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="T40" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="U40" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="V40" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="W40" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="X40" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
       <c r="Y40" t="n">
-        <v>95.08630530875541</v>
+        <v>95.08630530875524</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438816</v>
       </c>
       <c r="C41" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438816</v>
       </c>
       <c r="D41" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438816</v>
       </c>
       <c r="E41" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438816</v>
       </c>
       <c r="F41" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438816</v>
       </c>
       <c r="G41" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438816</v>
       </c>
       <c r="H41" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438816</v>
       </c>
       <c r="I41" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438816</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30507,28 +30507,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438816</v>
       </c>
       <c r="S41" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438816</v>
       </c>
       <c r="T41" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438816</v>
       </c>
       <c r="U41" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438816</v>
       </c>
       <c r="V41" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438816</v>
       </c>
       <c r="W41" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438816</v>
       </c>
       <c r="X41" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438816</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438816</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438816</v>
       </c>
       <c r="C43" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438816</v>
       </c>
       <c r="D43" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438816</v>
       </c>
       <c r="E43" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438816</v>
       </c>
       <c r="F43" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438816</v>
       </c>
       <c r="G43" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438816</v>
       </c>
       <c r="H43" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438816</v>
       </c>
       <c r="I43" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438816</v>
       </c>
       <c r="J43" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438816</v>
       </c>
       <c r="K43" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438816</v>
       </c>
       <c r="L43" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438816</v>
       </c>
       <c r="M43" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438816</v>
       </c>
       <c r="N43" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438816</v>
       </c>
       <c r="O43" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438816</v>
       </c>
       <c r="P43" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438816</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438816</v>
       </c>
       <c r="R43" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438816</v>
       </c>
       <c r="S43" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438816</v>
       </c>
       <c r="T43" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438816</v>
       </c>
       <c r="U43" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438816</v>
       </c>
       <c r="V43" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438816</v>
       </c>
       <c r="W43" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438816</v>
       </c>
       <c r="X43" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438816</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438816</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438788</v>
       </c>
       <c r="C44" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438788</v>
       </c>
       <c r="D44" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438788</v>
       </c>
       <c r="E44" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438788</v>
       </c>
       <c r="F44" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438788</v>
       </c>
       <c r="G44" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438788</v>
       </c>
       <c r="H44" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438788</v>
       </c>
       <c r="I44" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438788</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30744,28 +30744,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438788</v>
       </c>
       <c r="S44" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438788</v>
       </c>
       <c r="T44" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438788</v>
       </c>
       <c r="U44" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438788</v>
       </c>
       <c r="V44" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438788</v>
       </c>
       <c r="W44" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438788</v>
       </c>
       <c r="X44" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438788</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438788</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438788</v>
       </c>
       <c r="C46" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438788</v>
       </c>
       <c r="D46" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438788</v>
       </c>
       <c r="E46" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438788</v>
       </c>
       <c r="F46" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438788</v>
       </c>
       <c r="G46" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438788</v>
       </c>
       <c r="H46" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438788</v>
       </c>
       <c r="I46" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438788</v>
       </c>
       <c r="J46" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438788</v>
       </c>
       <c r="K46" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438788</v>
       </c>
       <c r="L46" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438788</v>
       </c>
       <c r="M46" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438788</v>
       </c>
       <c r="N46" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438788</v>
       </c>
       <c r="O46" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438788</v>
       </c>
       <c r="P46" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438788</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438788</v>
       </c>
       <c r="R46" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438788</v>
       </c>
       <c r="S46" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438788</v>
       </c>
       <c r="T46" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438788</v>
       </c>
       <c r="U46" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438788</v>
       </c>
       <c r="V46" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438788</v>
       </c>
       <c r="W46" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438788</v>
       </c>
       <c r="X46" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438788</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.095030834438973</v>
+        <v>1.095030834438788</v>
       </c>
     </row>
   </sheetData>
@@ -34704,7 +34704,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
         <v>551.5160606510915</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
@@ -34786,16 +34786,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>516.9416747776963</v>
       </c>
       <c r="N3" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O3" t="n">
-        <v>221.4806783164134</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34944,7 +34944,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N5" t="n">
         <v>533.1427107449111</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>172.5106644169664</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>634.1127774006881</v>
+        <v>22.71185353989332</v>
       </c>
       <c r="N6" t="n">
         <v>662.4019911217769</v>
@@ -35032,7 +35032,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35254,10 +35254,10 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>172.5106644169664</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
         <v>634.1127774006881</v>
@@ -35266,13 +35266,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
@@ -35503,13 +35503,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q12" t="n">
-        <v>119.5613130890187</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215736</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
@@ -35588,7 +35588,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446891</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K14" t="n">
-        <v>362.6084404317797</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
-        <v>498.3033249682111</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N14" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065878</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
         <v>186.7126870110591</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>22.71185353989334</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>338.957682585477</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35746,7 +35746,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
@@ -35825,7 +35825,7 @@
         <v>215.0783106122747</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446891</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35974,13 +35974,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>623.9629260562755</v>
+        <v>511.9438211324538</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>236.7324157120106</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>63.91678700215736</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K19" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L19" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M19" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N19" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O19" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P19" t="n">
-        <v>215.0783106122753</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q19" t="n">
-        <v>97.44803848446891</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>51.00106726098206</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
@@ -36217,7 +36217,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>23.49322931597565</v>
       </c>
       <c r="Q21" t="n">
         <v>236.7324157120106</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>63.91678700215736</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6529321611271</v>
+        <v>176.6529321611264</v>
       </c>
       <c r="L22" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M22" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N22" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O22" t="n">
-        <v>258.3395240113953</v>
+        <v>258.3395240113948</v>
       </c>
       <c r="P22" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q22" t="n">
-        <v>97.44803848446891</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>396.904887558667</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>63.91678700215805</v>
+        <v>63.91678700215692</v>
       </c>
       <c r="K25" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L25" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M25" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N25" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O25" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P25" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q25" t="n">
-        <v>97.44803848446891</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>371.2794891934863</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
         <v>236.7324157120106</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215737</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36773,7 +36773,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37010,7 +37010,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37153,13 +37153,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>73.93605315237758</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>38.37534082640112</v>
+        <v>65.01181783659618</v>
       </c>
       <c r="K34" t="n">
-        <v>177.7479629955654</v>
+        <v>177.7479629955652</v>
       </c>
       <c r="L34" t="n">
-        <v>260.8718001307754</v>
+        <v>234.2353231205843</v>
       </c>
       <c r="M34" t="n">
-        <v>283.2596167615474</v>
+        <v>283.2596167615472</v>
       </c>
       <c r="N34" t="n">
-        <v>280.1263396837142</v>
+        <v>280.126339683714</v>
       </c>
       <c r="O34" t="n">
-        <v>259.4345548458343</v>
+        <v>259.4345548458341</v>
       </c>
       <c r="P34" t="n">
-        <v>216.1733414467136</v>
+        <v>216.1733414467134</v>
       </c>
       <c r="Q34" t="n">
-        <v>98.5430693189079</v>
+        <v>98.54306931890773</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37387,16 +37387,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>425.1941012797557</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>65.01181783659635</v>
+        <v>65.01181783659618</v>
       </c>
       <c r="K37" t="n">
-        <v>177.7479629955654</v>
+        <v>177.7479629955652</v>
       </c>
       <c r="L37" t="n">
-        <v>234.2353231205802</v>
+        <v>260.8718001307752</v>
       </c>
       <c r="M37" t="n">
-        <v>283.2596167615474</v>
+        <v>283.2596167615472</v>
       </c>
       <c r="N37" t="n">
-        <v>280.1263396837142</v>
+        <v>253.4898626735231</v>
       </c>
       <c r="O37" t="n">
-        <v>259.4345548458343</v>
+        <v>259.4345548458341</v>
       </c>
       <c r="P37" t="n">
-        <v>216.1733414467136</v>
+        <v>216.1733414467134</v>
       </c>
       <c r="Q37" t="n">
-        <v>98.5430693189079</v>
+        <v>98.54306931890773</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>22.71185353989332</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>38.37534082640112</v>
+        <v>65.01181783659618</v>
       </c>
       <c r="K40" t="n">
-        <v>177.7479629955654</v>
+        <v>177.7479629955652</v>
       </c>
       <c r="L40" t="n">
-        <v>260.8718001307754</v>
+        <v>260.8718001307752</v>
       </c>
       <c r="M40" t="n">
-        <v>283.2596167615474</v>
+        <v>283.2596167615472</v>
       </c>
       <c r="N40" t="n">
-        <v>280.1263396837142</v>
+        <v>280.126339683714</v>
       </c>
       <c r="O40" t="n">
-        <v>259.4345548458343</v>
+        <v>259.4345548458341</v>
       </c>
       <c r="P40" t="n">
-        <v>216.1733414467136</v>
+        <v>216.1733414467134</v>
       </c>
       <c r="Q40" t="n">
-        <v>98.5430693189079</v>
+        <v>71.90659230871695</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37797,7 +37797,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q41" t="n">
         <v>186.7126870110591</v>
@@ -37870,7 +37870,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576773</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37940,25 +37940,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>83.75668852124895</v>
+        <v>83.75668852124879</v>
       </c>
       <c r="L43" t="n">
-        <v>166.880525656459</v>
+        <v>166.8805256564588</v>
       </c>
       <c r="M43" t="n">
-        <v>189.2683422872309</v>
+        <v>189.2683422872308</v>
       </c>
       <c r="N43" t="n">
-        <v>186.1350652093978</v>
+        <v>186.1350652093976</v>
       </c>
       <c r="O43" t="n">
-        <v>165.4432803715178</v>
+        <v>165.4432803715177</v>
       </c>
       <c r="P43" t="n">
-        <v>122.1820669723971</v>
+        <v>122.182066972397</v>
       </c>
       <c r="Q43" t="n">
-        <v>4.551794844591456</v>
+        <v>4.551794844591299</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38104,13 +38104,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>135.5123342397981</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38177,25 +38177,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>83.75668852124895</v>
+        <v>83.75668852124876</v>
       </c>
       <c r="L46" t="n">
-        <v>166.880525656459</v>
+        <v>166.8805256564588</v>
       </c>
       <c r="M46" t="n">
-        <v>189.2683422872309</v>
+        <v>189.2683422872307</v>
       </c>
       <c r="N46" t="n">
-        <v>186.1350652093978</v>
+        <v>186.1350652093976</v>
       </c>
       <c r="O46" t="n">
-        <v>165.4432803715178</v>
+        <v>165.4432803715176</v>
       </c>
       <c r="P46" t="n">
-        <v>122.1820669723971</v>
+        <v>122.182066972397</v>
       </c>
       <c r="Q46" t="n">
-        <v>4.551794844591456</v>
+        <v>4.551794844591271</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
